--- a/vectors.xlsx
+++ b/vectors.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA3564D-79B5-4F4F-8699-87B3A323AFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E26D7B-A1E6-4B02-9E85-9593B5C4D7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23500" xr2:uid="{68BB7A76-5CC1-4C55-80D7-450E3D9F50A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23500" activeTab="1" xr2:uid="{68BB7A76-5CC1-4C55-80D7-450E3D9F50A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
   <si>
     <t>VECTOR</t>
   </si>
@@ -190,18 +191,291 @@
   </si>
   <si>
     <t>IoT SECURITY</t>
+  </si>
+  <si>
+    <t>ACTIONABLE/DISSEMINABLE INFO</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Suspicious email activities, URLs, attachments</t>
+  </si>
+  <si>
+    <t>Deceptive emails mimicking legitimate sources</t>
+  </si>
+  <si>
+    <t>Targeted email threats to executives/employees</t>
+  </si>
+  <si>
+    <t>Highly targeted phishing attacks</t>
+  </si>
+  <si>
+    <t>Fraudulent phone calls</t>
+  </si>
+  <si>
+    <t>Phishing via phone calls</t>
+  </si>
+  <si>
+    <t>SMS with suspicious links</t>
+  </si>
+  <si>
+    <t>Phishing via text messages</t>
+  </si>
+  <si>
+    <t>Unusual information requests</t>
+  </si>
+  <si>
+    <t>Creating fabricated scenarios for info theft</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Any deceptive behavior</t>
+  </si>
+  <si>
+    <t>Manipulating people for information or access</t>
+  </si>
+  <si>
+    <t>Detection of virus infections</t>
+  </si>
+  <si>
+    <t>Infect other programs and propagate</t>
+  </si>
+  <si>
+    <t>Network spreading activity</t>
+  </si>
+  <si>
+    <t>Self-replicating programs</t>
+  </si>
+  <si>
+    <t>Unauthorized software actions</t>
+  </si>
+  <si>
+    <t>Disguised as legitimate software</t>
+  </si>
+  <si>
+    <t>File encryption activities</t>
+  </si>
+  <si>
+    <t>Encrypts data for ransom</t>
+  </si>
+  <si>
+    <t>Unauthorized data collection</t>
+  </si>
+  <si>
+    <t>Covert information gathering</t>
+  </si>
+  <si>
+    <t>Unwanted ad pop-ups</t>
+  </si>
+  <si>
+    <t>Displays unwanted advertisements</t>
+  </si>
+  <si>
+    <t>Man-in-the-Middle (MitM)</t>
+  </si>
+  <si>
+    <t>Unusual network patterns</t>
+  </si>
+  <si>
+    <t>Intercepting communications</t>
+  </si>
+  <si>
+    <t>Unexpected session takeovers</t>
+  </si>
+  <si>
+    <t>Exploiting valid sessions</t>
+  </si>
+  <si>
+    <t>VULNERABILITIES</t>
+  </si>
+  <si>
+    <t>Database query anomalies</t>
+  </si>
+  <si>
+    <t>Inserting malicious SQL queries</t>
+  </si>
+  <si>
+    <t>Suspicious script injections</t>
+  </si>
+  <si>
+    <t>Injecting scripts into web pages</t>
+  </si>
+  <si>
+    <t>Unauthorized web requests</t>
+  </si>
+  <si>
+    <t>Tricking a browser into executing actions</t>
+  </si>
+  <si>
+    <t>Employee misconduct</t>
+  </si>
+  <si>
+    <t>Employees intentionally harming the organization</t>
+  </si>
+  <si>
+    <t>Accidental data leaks</t>
+  </si>
+  <si>
+    <t>Employees inadvertently causing breaches</t>
+  </si>
+  <si>
+    <t>Physical intrusions</t>
+  </si>
+  <si>
+    <t>Gaining unauthorized physical entry</t>
+  </si>
+  <si>
+    <t>Finding sensitive info in trash</t>
+  </si>
+  <si>
+    <t>Searching waste for information</t>
+  </si>
+  <si>
+    <t>Unauthorized following into secure areas</t>
+  </si>
+  <si>
+    <t>Following authorized personnel</t>
+  </si>
+  <si>
+    <t>Compromised third-party software</t>
+  </si>
+  <si>
+    <t>Tampering with software in the supply chain</t>
+  </si>
+  <si>
+    <t>Altered hardware components</t>
+  </si>
+  <si>
+    <t>Altering physical components</t>
+  </si>
+  <si>
+    <t>Interface/API vulnerabilities</t>
+  </si>
+  <si>
+    <t>Weaknesses in cloud service interfaces</t>
+  </si>
+  <si>
+    <t>Unintended data exposures</t>
+  </si>
+  <si>
+    <t>Exposing or losing data accidentally</t>
+  </si>
+  <si>
+    <t>Unauthorized cloud account access</t>
+  </si>
+  <si>
+    <t>Gaining access to cloud service accounts</t>
+  </si>
+  <si>
+    <t>Vulnerable mobile applications</t>
+  </si>
+  <si>
+    <t>Apps with security weaknesses</t>
+  </si>
+  <si>
+    <t>Breach of mobile device security</t>
+  </si>
+  <si>
+    <t>Accessing mobile devices without permission</t>
+  </si>
+  <si>
+    <t>Compromised IoT devices</t>
+  </si>
+  <si>
+    <t>IoT devices with poor security</t>
+  </si>
+  <si>
+    <t>Suspicious IoT network activity</t>
+  </si>
+  <si>
+    <t>Breaches in IoT networks</t>
+  </si>
+  <si>
+    <t>Overload of network resources</t>
+  </si>
+  <si>
+    <t>Overwhelming systems to cause unavailability</t>
+  </si>
+  <si>
+    <t>Financial Fraud</t>
+  </si>
+  <si>
+    <t>Transaction Fraud</t>
+  </si>
+  <si>
+    <t>Irregular transactions</t>
+  </si>
+  <si>
+    <t>Unauthorized or suspicious transactions</t>
+  </si>
+  <si>
+    <t>Identity Theft</t>
+  </si>
+  <si>
+    <t>Stolen customer identities</t>
+  </si>
+  <si>
+    <t>Using stolen identities for fraudulent purposes</t>
+  </si>
+  <si>
+    <t>Software Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Software malfunctions</t>
+  </si>
+  <si>
+    <t>Flaws in software causing vulnerabilities</t>
+  </si>
+  <si>
+    <t>Misconfigurations</t>
+  </si>
+  <si>
+    <t>Incorrect system setups</t>
+  </si>
+  <si>
+    <t>Poorly configured systems leading to weaknesses</t>
+  </si>
+  <si>
+    <t>Outdated Software</t>
+  </si>
+  <si>
+    <t>Systems with no recent updates</t>
+  </si>
+  <si>
+    <t>Using software that's not up-to-date</t>
+  </si>
+  <si>
+    <t>Weak Encryption</t>
+  </si>
+  <si>
+    <t>Poorly encrypted data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +524,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AA3303-E911-4FF2-840C-7483F570A16C}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,4 +1194,639 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26346ED4-B577-40C0-8A3F-C86AA0A95D08}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>